--- a/lab3.10/data.xlsx
+++ b/lab3.10/data.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirilllalayants/physics/PhysicsITMO_Electrostatics/lab3.10/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7BC818-46FF-4A42-B2A4-3028FF63D986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
     <sheet name="table2" sheetId="2" r:id="rId2"/>
     <sheet name="consts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Rm, Ohm</t>
   </si>
@@ -76,13 +93,28 @@
   </si>
   <si>
     <t>f, Hz</t>
+  </si>
+  <si>
+    <t>L_mean, H</t>
+  </si>
+  <si>
+    <t>R_0, Ohm</t>
+  </si>
+  <si>
+    <t>T_exp, c</t>
+  </si>
+  <si>
+    <t>T_theory, c</t>
+  </si>
+  <si>
+    <t>deltaT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +177,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -191,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +263,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +315,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,14 +508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,12 +544,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C2">
         <v>5.2</v>
@@ -485,21 +561,24 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3865949441167409</v>
+        <v>0.38659494411674089</v>
+      </c>
+      <c r="G2">
+        <v>11.668772713333521</v>
       </c>
       <c r="H2">
-        <v>10.36765249154567</v>
+        <v>92.849228006262337</v>
       </c>
       <c r="I2">
-        <v>0.0001561604133425547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1.2524681205612729E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -511,21 +590,24 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0.4757054518800486</v>
+        <v>0.47570545188004859</v>
+      </c>
+      <c r="G3">
+        <v>10.236464388297509</v>
       </c>
       <c r="H3">
-        <v>20.36765249154567</v>
+        <v>102.84922800626229</v>
       </c>
       <c r="I3">
-        <v>0.0003980412870239254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>1.014958397452637E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C4">
         <v>9.6</v>
@@ -537,24 +619,27 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>0.5228719726379484</v>
+        <v>0.52287197263794838</v>
+      </c>
+      <c r="G4">
+        <v>9.6877561291971244</v>
       </c>
       <c r="H4">
-        <v>30.36765249154567</v>
+        <v>112.84922800626229</v>
       </c>
       <c r="I4">
-        <v>0.0007324097920047121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1.0114138232004081E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C5">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D5">
         <v>3.2</v>
@@ -563,24 +648,27 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5280263371246569</v>
+        <v>0.52802633712465685</v>
+      </c>
+      <c r="G5">
+        <v>9.6342174710086983</v>
       </c>
       <c r="H5">
-        <v>40.36765249154568</v>
+        <v>122.84922800626229</v>
       </c>
       <c r="I5">
-        <v>0.00126904857350578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1.175319981410301E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C6">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D6">
         <v>2.8</v>
@@ -589,21 +677,24 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5725661521515013</v>
+        <v>0.57256615215150131</v>
+      </c>
+      <c r="G6">
+        <v>9.2153384505300586</v>
       </c>
       <c r="H6">
-        <v>50.36765249154568</v>
+        <v>132.84922800626231</v>
       </c>
       <c r="I6">
-        <v>0.001680252324168723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1.1689317501492109E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C7">
         <v>8.4</v>
@@ -615,21 +706,24 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0.626381484247684</v>
+        <v>0.62638148424768403</v>
+      </c>
+      <c r="G7">
+        <v>8.7964594300514207</v>
       </c>
       <c r="H7">
-        <v>60.36765249154568</v>
+        <v>142.84922800626231</v>
       </c>
       <c r="I7">
-        <v>0.002016755169208268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>1.12927678035233E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
       <c r="B8">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -641,21 +735,24 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.6931471805599453</v>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="G8">
+        <v>8.3775804095727811</v>
       </c>
       <c r="H8">
-        <v>70.36765249154567</v>
+        <v>152.84922800626231</v>
       </c>
       <c r="I8">
-        <v>0.002237781246634812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>1.0558397380806141E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>80</v>
       </c>
       <c r="B9">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C9">
         <v>7.6</v>
@@ -667,21 +764,24 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.7472144018302211</v>
+        <v>0.74721440183022114</v>
+      </c>
+      <c r="G9">
+        <v>8.1008210567565371</v>
       </c>
       <c r="H9">
-        <v>80.36765249154567</v>
+        <v>162.84922800626231</v>
       </c>
       <c r="I9">
-        <v>0.002511854761019801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>1.031343573191449E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>90</v>
       </c>
       <c r="B10">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C10">
         <v>7.2</v>
@@ -693,21 +793,24 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.8109302162163288</v>
+        <v>0.81093021621632877</v>
+      </c>
+      <c r="G10">
+        <v>7.8298155366391766</v>
       </c>
       <c r="H10">
-        <v>90.36765249154567</v>
+        <v>172.84922800626231</v>
       </c>
       <c r="I10">
-        <v>0.00269638226123985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>9.8648468778559009E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
       <c r="B11">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C11">
         <v>6.8</v>
@@ -721,19 +824,22 @@
       <c r="F11">
         <v>0.7537718023763802</v>
       </c>
+      <c r="G11">
+        <v>8.0704024612217786</v>
+      </c>
       <c r="H11">
-        <v>100.3676524915457</v>
+        <v>182.84922800626231</v>
       </c>
       <c r="I11">
-        <v>0.003849729235570425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>1.277700057426407E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>200</v>
       </c>
       <c r="B12">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C12">
         <v>10.8</v>
@@ -745,18 +851,24 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.349926716949016</v>
+        <v>1.3499267169490159</v>
+      </c>
+      <c r="G12">
+        <v>6.7359442484322329</v>
       </c>
       <c r="H12">
-        <v>200.3676524915457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>282.84922800626242</v>
+      </c>
+      <c r="I12">
+        <v>9.5326146267502004E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>300</v>
       </c>
       <c r="B13">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -768,18 +880,24 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1.897119984885881</v>
+        <v>1.8971199848858811</v>
+      </c>
+      <c r="G13">
+        <v>6.4278110559381956</v>
       </c>
       <c r="H13">
-        <v>300.3676524915457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>382.84922800626242</v>
+      </c>
+      <c r="I13">
+        <v>8.8427710242114013E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>400</v>
       </c>
       <c r="B14">
-        <v>7.999999999999999E-05</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="C14">
         <v>4.8</v>
@@ -791,10 +909,16 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2.484906649788</v>
+        <v>2.4849066497879999</v>
+      </c>
+      <c r="G14">
+        <v>6.3271236659710519</v>
       </c>
       <c r="H14">
-        <v>400.3676524915457</v>
+        <v>482.84922800626242</v>
+      </c>
+      <c r="I14">
+        <v>8.198329184582508E-3</v>
       </c>
     </row>
   </sheetData>
@@ -803,16 +927,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.1999999999999998E-8</v>
+      </c>
+      <c r="B2">
+        <f>1.8/4 * 10^-6</f>
+        <v>4.4999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.2999999999999998E-8</v>
+      </c>
+      <c r="B3">
+        <f>2.8/5 * 200* 10^-6</f>
+        <v>1.1199999999999998E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4.6999999999999997E-8</v>
+      </c>
+      <c r="B4">
+        <f>1.4/2 * 200* 10^-6</f>
+        <v>1.3999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4.6999999999999989E-7</v>
+      </c>
+      <c r="B5">
+        <f>2* 200* 10^-6</f>
+        <v>3.9999999999999996E-4</v>
       </c>
     </row>
   </sheetData>
@@ -821,14 +995,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -862,40 +1038,52 @@
       <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.2E-08</v>
+        <v>2.1999999999999998E-8</v>
       </c>
       <c r="B2">
-        <v>3.3E-08</v>
+        <v>3.2999999999999998E-8</v>
       </c>
       <c r="C2">
-        <v>4.7E-08</v>
+        <v>4.6999999999999997E-8</v>
       </c>
       <c r="D2">
-        <v>4.699999999999999E-07</v>
+        <v>4.6999999999999989E-7</v>
       </c>
       <c r="E2">
-        <v>2.2E-09</v>
+        <v>2.1999999999999998E-9</v>
       </c>
       <c r="F2">
-        <v>3.3E-09</v>
+        <v>3.3000000000000002E-9</v>
       </c>
       <c r="G2">
-        <v>4.7E-09</v>
+        <v>4.6999999999999999E-9</v>
       </c>
       <c r="H2">
-        <v>4.7E-08</v>
+        <v>4.6999999999999997E-8</v>
       </c>
       <c r="I2">
         <v>0.01</v>
       </c>
       <c r="J2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="K2">
         <v>40</v>
+      </c>
+      <c r="L2">
+        <v>1.0585467994742021E-2</v>
+      </c>
+      <c r="M2">
+        <v>82.849228006262337</v>
       </c>
     </row>
   </sheetData>

--- a/lab3.10/data.xlsx
+++ b/lab3.10/data.xlsx
@@ -1,39 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirilllalayants/physics/PhysicsITMO_Electrostatics/lab3.10/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7BC818-46FF-4A42-B2A4-3028FF63D986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
     <sheet name="table2" sheetId="2" r:id="rId2"/>
     <sheet name="consts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Rm, Ohm</t>
   </si>
@@ -65,6 +48,15 @@
     <t>C</t>
   </si>
   <si>
+    <t>T_exp, c</t>
+  </si>
+  <si>
+    <t>T_theory, c</t>
+  </si>
+  <si>
+    <t>deltaT</t>
+  </si>
+  <si>
     <t>C1, F</t>
   </si>
   <si>
@@ -101,20 +93,14 @@
     <t>R_0, Ohm</t>
   </si>
   <si>
-    <t>T_exp, c</t>
-  </si>
-  <si>
-    <t>T_theory, c</t>
-  </si>
-  <si>
-    <t>deltaT</t>
+    <t>R_no_fluctuations, Ohm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,14 +163,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,27 +241,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,24 +275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,14 +450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,12 +486,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C2">
         <v>5.2</v>
@@ -561,24 +503,24 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0.38659494411674089</v>
+        <v>0.3865949441167409</v>
       </c>
       <c r="G2">
-        <v>11.668772713333521</v>
+        <v>11.66877271333352</v>
       </c>
       <c r="H2">
-        <v>92.849228006262337</v>
+        <v>92.84922800626234</v>
       </c>
       <c r="I2">
-        <v>1.2524681205612729E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.01252468120561273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -590,24 +532,24 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0.47570545188004859</v>
+        <v>0.4757054518800486</v>
       </c>
       <c r="G3">
-        <v>10.236464388297509</v>
+        <v>10.23646438829751</v>
       </c>
       <c r="H3">
-        <v>102.84922800626229</v>
+        <v>102.8492280062623</v>
       </c>
       <c r="I3">
-        <v>1.014958397452637E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.01014958397452637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C4">
         <v>9.6</v>
@@ -619,27 +561,27 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>0.52287197263794838</v>
+        <v>0.5228719726379484</v>
       </c>
       <c r="G4">
-        <v>9.6877561291971244</v>
+        <v>9.687756129197124</v>
       </c>
       <c r="H4">
-        <v>112.84922800626229</v>
+        <v>112.8492280062623</v>
       </c>
       <c r="I4">
-        <v>1.0114138232004081E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.01011413823200408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C5">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D5">
         <v>3.2</v>
@@ -648,27 +590,27 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.52802633712465685</v>
+        <v>0.5280263371246569</v>
       </c>
       <c r="G5">
-        <v>9.6342174710086983</v>
+        <v>9.634217471008698</v>
       </c>
       <c r="H5">
-        <v>122.84922800626229</v>
+        <v>122.8492280062623</v>
       </c>
       <c r="I5">
-        <v>1.175319981410301E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.01175319981410301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C6">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D6">
         <v>2.8</v>
@@ -677,24 +619,24 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0.57256615215150131</v>
+        <v>0.5725661521515013</v>
       </c>
       <c r="G6">
-        <v>9.2153384505300586</v>
+        <v>9.215338450530059</v>
       </c>
       <c r="H6">
-        <v>132.84922800626231</v>
+        <v>132.8492280062623</v>
       </c>
       <c r="I6">
-        <v>1.1689317501492109E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.01168931750149211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C7">
         <v>8.4</v>
@@ -706,24 +648,24 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0.62638148424768403</v>
+        <v>0.626381484247684</v>
       </c>
       <c r="G7">
-        <v>8.7964594300514207</v>
+        <v>8.796459430051421</v>
       </c>
       <c r="H7">
-        <v>142.84922800626231</v>
+        <v>142.8492280062623</v>
       </c>
       <c r="I7">
-        <v>1.12927678035233E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.0112927678035233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>70</v>
       </c>
       <c r="B8">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -735,24 +677,24 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.69314718055994529</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="G8">
-        <v>8.3775804095727811</v>
+        <v>8.377580409572781</v>
       </c>
       <c r="H8">
-        <v>152.84922800626231</v>
+        <v>152.8492280062623</v>
       </c>
       <c r="I8">
-        <v>1.0558397380806141E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.01055839738080614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>80</v>
       </c>
       <c r="B9">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C9">
         <v>7.6</v>
@@ -764,24 +706,24 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.74721440183022114</v>
+        <v>0.7472144018302211</v>
       </c>
       <c r="G9">
-        <v>8.1008210567565371</v>
+        <v>8.100821056756537</v>
       </c>
       <c r="H9">
-        <v>162.84922800626231</v>
+        <v>162.8492280062623</v>
       </c>
       <c r="I9">
-        <v>1.031343573191449E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.01031343573191449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>90</v>
       </c>
       <c r="B10">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C10">
         <v>7.2</v>
@@ -793,24 +735,24 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.81093021621632877</v>
+        <v>0.8109302162163288</v>
       </c>
       <c r="G10">
-        <v>7.8298155366391766</v>
+        <v>7.829815536639177</v>
       </c>
       <c r="H10">
-        <v>172.84922800626231</v>
+        <v>172.8492280062623</v>
       </c>
       <c r="I10">
-        <v>9.8648468778559009E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.009864846877855901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>100</v>
       </c>
       <c r="B11">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C11">
         <v>6.8</v>
@@ -825,21 +767,21 @@
         <v>0.7537718023763802</v>
       </c>
       <c r="G11">
-        <v>8.0704024612217786</v>
+        <v>8.070402461221779</v>
       </c>
       <c r="H11">
-        <v>182.84922800626231</v>
+        <v>182.8492280062623</v>
       </c>
       <c r="I11">
-        <v>1.277700057426407E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.01277700057426407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>200</v>
       </c>
       <c r="B12">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C12">
         <v>10.8</v>
@@ -851,24 +793,24 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.3499267169490159</v>
+        <v>1.349926716949016</v>
       </c>
       <c r="G12">
-        <v>6.7359442484322329</v>
+        <v>6.735944248432233</v>
       </c>
       <c r="H12">
-        <v>282.84922800626242</v>
+        <v>282.8492280062624</v>
       </c>
       <c r="I12">
-        <v>9.5326146267502004E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.0095326146267502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>300</v>
       </c>
       <c r="B13">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -880,24 +822,24 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1.8971199848858811</v>
+        <v>1.897119984885881</v>
       </c>
       <c r="G13">
-        <v>6.4278110559381956</v>
+        <v>6.427811055938196</v>
       </c>
       <c r="H13">
-        <v>382.84922800626242</v>
+        <v>382.8492280062624</v>
       </c>
       <c r="I13">
-        <v>8.8427710242114013E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.008842771024211401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>400</v>
       </c>
       <c r="B14">
-        <v>7.9999999999999993E-5</v>
+        <v>7.999999999999999E-05</v>
       </c>
       <c r="C14">
         <v>4.8</v>
@@ -909,16 +851,16 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2.4849066497879999</v>
+        <v>2.484906649788</v>
       </c>
       <c r="G14">
-        <v>6.3271236659710519</v>
+        <v>6.327123665971052</v>
       </c>
       <c r="H14">
-        <v>482.84922800626242</v>
+        <v>482.8492280062624</v>
       </c>
       <c r="I14">
-        <v>8.198329184582508E-3</v>
+        <v>0.008198329184582508</v>
       </c>
     </row>
   </sheetData>
@@ -927,66 +869,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>2.1999999999999998E-8</v>
+        <v>2.2E-08</v>
       </c>
       <c r="B2">
-        <f>1.8/4 * 10^-6</f>
-        <v>4.4999999999999998E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.999999999999999E-05</v>
+      </c>
+      <c r="C2">
+        <v>9.605546036105993E-05</v>
+      </c>
+      <c r="D2">
+        <v>-0.06304129237732298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>3.2999999999999998E-8</v>
+        <v>3.3E-08</v>
       </c>
       <c r="B3">
-        <f>2.8/5 * 200* 10^-6</f>
-        <v>1.1199999999999998E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.000112</v>
+      </c>
+      <c r="C3">
+        <v>0.0001177488401303093</v>
+      </c>
+      <c r="D3">
+        <v>-0.04882290240776201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>4.6999999999999997E-8</v>
+        <v>4.7E-08</v>
       </c>
       <c r="B4">
-        <f>1.4/2 * 200* 10^-6</f>
-        <v>1.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.00014</v>
+      </c>
+      <c r="C4">
+        <v>0.0001406839762586934</v>
+      </c>
+      <c r="D4">
+        <v>-0.004861792201804938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>4.6999999999999989E-7</v>
+        <v>4.699999999999999E-07</v>
       </c>
       <c r="B5">
-        <f>2* 200* 10^-6</f>
-        <v>3.9999999999999996E-4</v>
+        <v>0.0004</v>
+      </c>
+      <c r="C5">
+        <v>0.0004610975114434064</v>
+      </c>
+      <c r="D5">
+        <v>-0.1325045352167452</v>
       </c>
     </row>
   </sheetData>
@@ -995,95 +952,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
-        <v>2.1999999999999998E-8</v>
+        <v>2.2E-08</v>
       </c>
       <c r="B2">
-        <v>3.2999999999999998E-8</v>
+        <v>3.3E-08</v>
       </c>
       <c r="C2">
-        <v>4.6999999999999997E-8</v>
+        <v>4.7E-08</v>
       </c>
       <c r="D2">
-        <v>4.6999999999999989E-7</v>
+        <v>4.699999999999999E-07</v>
       </c>
       <c r="E2">
-        <v>2.1999999999999998E-9</v>
+        <v>2.2E-09</v>
       </c>
       <c r="F2">
-        <v>3.3000000000000002E-9</v>
+        <v>3.3E-09</v>
       </c>
       <c r="G2">
-        <v>4.6999999999999999E-9</v>
+        <v>4.7E-09</v>
       </c>
       <c r="H2">
-        <v>4.6999999999999997E-8</v>
+        <v>4.7E-08</v>
       </c>
       <c r="I2">
         <v>0.01</v>
       </c>
       <c r="J2">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="K2">
         <v>40</v>
       </c>
       <c r="L2">
-        <v>1.0585467994742021E-2</v>
+        <v>0.01058546799474202</v>
       </c>
       <c r="M2">
-        <v>82.849228006262337</v>
+        <v>82.84922800626234</v>
+      </c>
+      <c r="N2">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/lab3.10/data.xlsx
+++ b/lab3.10/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Rm, Ohm</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>L, H</t>
+  </si>
+  <si>
+    <t>dlabmda</t>
+  </si>
+  <si>
+    <t>dL, H</t>
+  </si>
+  <si>
+    <t>dQ</t>
   </si>
   <si>
     <t>C</t>
@@ -451,13 +460,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +494,17 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>10</v>
       </c>
@@ -514,8 +532,17 @@
       <c r="I2">
         <v>0.01252468120561273</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0.02294522606294287</v>
+      </c>
+      <c r="K2">
+        <v>0.0007433662700521368</v>
+      </c>
+      <c r="L2">
+        <v>0.1774421935303411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>20</v>
       </c>
@@ -543,8 +570,17 @@
       <c r="I3">
         <v>0.01014958397452637</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0.01428328903575827</v>
+      </c>
+      <c r="K3">
+        <v>0.0003047462267416162</v>
+      </c>
+      <c r="L3">
+        <v>0.08752335056636656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>30</v>
       </c>
@@ -572,8 +608,17 @@
       <c r="I4">
         <v>0.01011413823200408</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>0.01702451482240453</v>
+      </c>
+      <c r="K4">
+        <v>0.0003293125377860518</v>
+      </c>
+      <c r="L4">
+        <v>0.09345570216804445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>40</v>
       </c>
@@ -601,8 +646,17 @@
       <c r="I5">
         <v>0.01175319981410301</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0.01654320062756239</v>
+      </c>
+      <c r="K5">
+        <v>0.0003682307659108916</v>
+      </c>
+      <c r="L5">
+        <v>0.08976773981693988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>50</v>
       </c>
@@ -630,8 +684,17 @@
       <c r="I6">
         <v>0.01168931750149211</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>0.01873927983866103</v>
+      </c>
+      <c r="K6">
+        <v>0.0003825748185782697</v>
+      </c>
+      <c r="L6">
+        <v>0.0922840475103308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>60</v>
       </c>
@@ -659,8 +722,17 @@
       <c r="I7">
         <v>0.0112927678035233</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>0.02166699371809678</v>
+      </c>
+      <c r="K7">
+        <v>0.0003906250986213911</v>
+      </c>
+      <c r="L7">
+        <v>0.09550705640144183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>70</v>
       </c>
@@ -688,8 +760,17 @@
       <c r="I8">
         <v>0.01055839738080614</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>0.02576941016011038</v>
+      </c>
+      <c r="K8">
+        <v>0.0003925337653680292</v>
+      </c>
+      <c r="L8">
+        <v>0.09976019399108388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>80</v>
       </c>
@@ -717,8 +798,17 @@
       <c r="I9">
         <v>0.01031343573191449</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>0.0307365439205097</v>
+      </c>
+      <c r="K9">
+        <v>0.0004242415156464973</v>
+      </c>
+      <c r="L9">
+        <v>0.1076431229314948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>90</v>
       </c>
@@ -746,8 +836,17 @@
       <c r="I10">
         <v>0.009864846877855901</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>0.03419742292290314</v>
+      </c>
+      <c r="K10">
+        <v>0.000416006623018379</v>
+      </c>
+      <c r="L10">
+        <v>0.1068968763206516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>100</v>
       </c>
@@ -775,8 +874,17 @@
       <c r="I11">
         <v>0.01277700057426407</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>0.03453730556627929</v>
+      </c>
+      <c r="K11">
+        <v>0.000585433378726389</v>
+      </c>
+      <c r="L11">
+        <v>0.1195228621905808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>200</v>
       </c>
@@ -804,8 +912,17 @@
       <c r="I12">
         <v>0.0095326146267502</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>0.03689504148407766</v>
+      </c>
+      <c r="K12">
+        <v>0.0002605372630157059</v>
+      </c>
+      <c r="L12">
+        <v>0.04834970656359067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>300</v>
       </c>
@@ -833,8 +950,17 @@
       <c r="I13">
         <v>0.008842771024211401</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>0.04213280920032643</v>
+      </c>
+      <c r="K13">
+        <v>0.0001963875702820587</v>
+      </c>
+      <c r="L13">
+        <v>0.02365233740638265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>400</v>
       </c>
@@ -861,6 +987,15 @@
       </c>
       <c r="I14">
         <v>0.008198329184582508</v>
+      </c>
+      <c r="J14">
+        <v>0.2508665537248395</v>
+      </c>
+      <c r="K14">
+        <v>0.0008276715702835168</v>
+      </c>
+      <c r="L14">
+        <v>0.05516366637262572</v>
       </c>
     </row>
   </sheetData>
@@ -878,16 +1013,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -961,46 +1096,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14">

--- a/lab3.10/data.xlsx
+++ b/lab3.10/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Rm, Ohm</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>R_no_fluctuations, Ohm</t>
+  </si>
+  <si>
+    <t>dL_mean, H</t>
   </si>
 </sst>
 </file>
@@ -1088,13 +1091,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1137,8 +1140,11 @@
       <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>2.2E-08</v>
       </c>
@@ -1180,6 +1186,9 @@
       </c>
       <c r="N2">
         <v>600</v>
+      </c>
+      <c r="O2">
+        <v>0.001682201272578533</v>
       </c>
     </row>
   </sheetData>

--- a/lab3.10/data.xlsx
+++ b/lab3.10/data.xlsx
@@ -1185,7 +1185,7 @@
         <v>82.84922800626234</v>
       </c>
       <c r="N2">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="O2">
         <v>0.001682201272578533</v>
